--- a/listening/听力高频词.xlsx
+++ b/listening/听力高频词.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1GIT\IELTS-preparation\listening\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF1D609-69CE-40FB-B23F-B6DA52087F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA218637-AFEB-40C9-AFDE-3A56E7FF2E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11415" yWindow="3825" windowWidth="4620" windowHeight="10035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15000" yWindow="0" windowWidth="13725" windowHeight="15195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="856">
   <si>
     <t>英文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1879,6 +1879,1574 @@
   </si>
   <si>
     <t>profit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>occupation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝/白领</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文员工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅行代理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会计师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接待员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侍从</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理疗师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票经纪人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出纳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营养师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐厅员工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房帮工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主厨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男管家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手工艺者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木匠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韵律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消遣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Travelling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娱乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>airport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机场场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往返票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中途停留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直达航班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免税店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>票价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中先生/小姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地勤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男/女乘务员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息室/候机厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tourist Attraction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅游景点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史遗迹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大教堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山林风景区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海港</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水族馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游乐园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旱冰场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水力发电站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海湾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>港口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水坝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市政大厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大堡礁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演播剧场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人行小桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悉尼歌剧院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伦敦塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地质地貌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geological landform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沼泽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灌木丛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丘陵地带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程安排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schedule/Itinerary/Route/Aggenda/Timetable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭便车旅行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徒步旅行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短途旅行，远足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郊游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探险，远征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sports</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攀岩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蹦极跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑翔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柔道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>划船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壁球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢跑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aoccommodation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐旅店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海景餐馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招待所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粤语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Public Transportation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共交通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘公共车辆上下班者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长途客车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮渡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大篷车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有轨电车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游艇游览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜艇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四驱车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中巴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机场大巴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卧铺车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wearing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿戴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泳衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裤子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套衫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚊帐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>望远镜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱虫剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防晒霜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带刺的东西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡拉ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七巧板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫步者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悲剧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科幻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨克斯管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笛子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哑剧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边缘舞台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雕塑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芭蕾舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指挥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shopping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨价还价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回扣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>促销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便利店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精品店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂货店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食品杂货店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔬菜店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天鹅绒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡胶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木材的天然纹理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条纹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包裹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化妆品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪念品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回形针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细绳，粗线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮革</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口香糖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盖子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棉织品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糟糕的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满意的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保守的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有特色的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多种功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省力的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复杂的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华丽的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇异的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极好的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最先进的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Restaurant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小餐馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐饮服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blue/white collar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tour guide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>travel agent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nurse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>administrator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reporter/jounalist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mayor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receptionist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secretary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attendant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical therapist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stockbroker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salesman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cashier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dietician</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hospitality staff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kitchen hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>butler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>craftsman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>athlete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carpenter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melody</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rhythm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pastime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recreation/entertainment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round-trip/return ticket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layover/stopover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-stop flight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>connecting-flight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duty-free shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excess charge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacant seat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surcharge/extra charge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>air host/hostess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ground steward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>steward/stewardess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seat reservation/assignment/arrangement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fulling-booked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>underneath/underside/bottom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lounge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secenic spot/ view point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>historical interest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seascape sceneray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cathedral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mountain resort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>botanical graden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harbour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aquarium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amusement park</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orchard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ice rink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>water mill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservoir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>town hall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teletech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Great Barrier Reef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studio theatre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>footbridge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sydney Opera House</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower of London</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swamp/marsh/wetland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hilly area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitch-hike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outing/excursion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voyage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outtrip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expedition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rock climbing/cliff walks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bungee jumping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hang-gliding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>judo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scuba dive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>squash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jogging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bed and breakfast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sea View Restaurant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cottage/cabin/lodge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hostel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cantonese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mandarin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subway/underground/tube/Mertro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commuter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ferry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caravan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>river cruise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>submarine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-wheel-drvie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>van</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuttle bus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>airport limousine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>berth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>express</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pullman/sleeping-car</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bath suit/swimming costume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trousers/long pants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>necklace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pullover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jumper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pajamas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sandals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slippers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sneakers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mosquito net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telescope/binoculars</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insect repellent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sun cream/suntan lotion/sun block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stinger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>karaoke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jigsaw puzzle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animated cartoons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tregedy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>science fiction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saxophone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fringe stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sculpture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>china/pottery/porcelain/ceramics/crokery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conductor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>annual fee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wholesale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bargain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rebate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receipt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>convenience store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boutique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grocery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grocer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>green grocer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nylon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>velvet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rubber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grain pattern of timber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parcel/pack/package</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cosmetics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>souvenir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perfume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paper clip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rear wheels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heat indicator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chewing gum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fabrics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>awful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>satisfactory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conservative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relevant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distinctive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>realistic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>versatile function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>labour-saving</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sophisticated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magnificent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exotic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stunning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state-of-the-art</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Café cafeteria</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catering service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canteen/refectory</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1886,7 +3454,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1903,6 +3471,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1931,9 +3507,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2214,15 +3791,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C236"/>
+  <dimension ref="A1:C433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A236" sqref="A236"/>
+    <sheetView tabSelected="1" topLeftCell="A418" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A434" sqref="A434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.625" customWidth="1"/>
+    <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4788,8 +6365,2181 @@
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="C236">
         <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>673</v>
+      </c>
+      <c r="B237" t="s">
+        <v>465</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>674</v>
+      </c>
+      <c r="B238" t="s">
+        <v>466</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>675</v>
+      </c>
+      <c r="B239" t="s">
+        <v>467</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>676</v>
+      </c>
+      <c r="B240" t="s">
+        <v>468</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>677</v>
+      </c>
+      <c r="B241" t="s">
+        <v>469</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>678</v>
+      </c>
+      <c r="B242" t="s">
+        <v>470</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>679</v>
+      </c>
+      <c r="B243" t="s">
+        <v>471</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>680</v>
+      </c>
+      <c r="B244" t="s">
+        <v>472</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>681</v>
+      </c>
+      <c r="B245" t="s">
+        <v>473</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>682</v>
+      </c>
+      <c r="B246" t="s">
+        <v>474</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>683</v>
+      </c>
+      <c r="B247" t="s">
+        <v>475</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>684</v>
+      </c>
+      <c r="B248" t="s">
+        <v>476</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>685</v>
+      </c>
+      <c r="B249" t="s">
+        <v>477</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>686</v>
+      </c>
+      <c r="B250" t="s">
+        <v>478</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>687</v>
+      </c>
+      <c r="B251" t="s">
+        <v>479</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>688</v>
+      </c>
+      <c r="B252" t="s">
+        <v>480</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>689</v>
+      </c>
+      <c r="B253" t="s">
+        <v>481</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>690</v>
+      </c>
+      <c r="B254" t="s">
+        <v>482</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>691</v>
+      </c>
+      <c r="B255" t="s">
+        <v>483</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>692</v>
+      </c>
+      <c r="B256" t="s">
+        <v>484</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>693</v>
+      </c>
+      <c r="B257" t="s">
+        <v>485</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>694</v>
+      </c>
+      <c r="B258" t="s">
+        <v>486</v>
+      </c>
+      <c r="C258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>695</v>
+      </c>
+      <c r="B259" t="s">
+        <v>487</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>696</v>
+      </c>
+      <c r="B260" t="s">
+        <v>488</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>697</v>
+      </c>
+      <c r="B261" t="s">
+        <v>489</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>698</v>
+      </c>
+      <c r="B262" t="s">
+        <v>490</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>699</v>
+      </c>
+      <c r="B264" t="s">
+        <v>493</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>700</v>
+      </c>
+      <c r="B266" t="s">
+        <v>496</v>
+      </c>
+      <c r="C266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A304" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A307" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A308" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A309" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A311" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A312" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A313" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A314" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A315" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A316" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A317" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A318" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A319" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A320" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A321" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A322" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A323" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A324" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A325" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A326" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A327" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A328" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A329" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A330" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A331" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A332" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A333" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A334" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A335" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A336" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A337" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A338" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A339" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A340" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A341" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A342" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A343" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A344" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A345" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A346" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A347" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A348" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A349" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A350" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A351" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A352" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A353" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A354" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A355" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A356" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A357" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A358" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A359" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A360" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A361" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A362" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A363" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A364" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A365" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A366" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="C366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A367" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A368" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A369" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A370" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A371" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A372" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A373" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A374" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="C374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A375" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A376" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A377" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A378" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A379" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A380" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="C380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A381" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A382" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A383" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A384" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A385" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A386" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A387" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A388" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A389" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="C389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A390" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A391" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A392" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A393" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A394" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A395" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A396" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A397" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A398" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A399" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A400" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A401" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A402" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A403" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A404" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A405" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A406" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A407" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A408" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A409" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="C409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A410" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A411" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A412" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A413" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="C413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A414" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A415" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>653</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="C416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>840</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="C417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>841</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>842</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="C419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>843</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>844</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>845</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="C422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>846</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="C423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>847</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>848</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>849</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>850</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>851</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>852</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="C429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A430" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>853</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>854</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>855</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C433">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/listening/听力高频词.xlsx
+++ b/listening/听力高频词.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1GIT\IELTS-preparation\listening\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA218637-AFEB-40C9-AFDE-3A56E7FF2E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD140737-ABA3-4E43-B0DE-CDB70ECF8784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15000" yWindow="0" windowWidth="13725" windowHeight="15195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14805" yWindow="975" windowWidth="13725" windowHeight="15195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="1266">
   <si>
     <t>英文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3447,6 +3447,1646 @@
   </si>
   <si>
     <t>canteen/refectory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外卖餐馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小卖部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动售货机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免下车路边餐厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动，第一道菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲱鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柠檬汁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘦肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿泉水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扁豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖喱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪茄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牡蛎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红辣椒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西蓝花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花椰菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芹菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菠菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香槟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝酒上瘾的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳水化合物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胆固醇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十字路口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁字路口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分岔路口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人行道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄热病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢性的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急性的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喉咙痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哮喘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肺炎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关节炎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糖尿病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腹泻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻风病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>症状</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流鼻涕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失眠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呕吐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溃疡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困倦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲劳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肿块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消化不良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扭伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肘部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脱臼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨折</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颈部僵硬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脖子发僵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽筋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drug/Medication/Medicine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剂量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗生素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胶囊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药膏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糖浆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药棉块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿司匹林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青霉素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>救护车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗，疗法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Treatment/Therapy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针灸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静脉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体温计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新陈代谢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韧带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病起因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disease casue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作时间不规律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对身体的忽视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期寿命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物钟紊乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社交时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节奏快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诊所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clinic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牙医</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私人诊所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全科执业医师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外科医生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内科医生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兽医</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼科医生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诊断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英镑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五分硬币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十分硬币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Credit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信用卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>透支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check/cheque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空头支票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存折账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank book/pass book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联名账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速成户头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bank activities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收银员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行职员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筹资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小写金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>损坏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵押</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薪水单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分期付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>担保物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外貌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Appearance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>染发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辫子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分缝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发髻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脸部特征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Face features</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下巴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刮过脸的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皱纹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雀斑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒窝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物品性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聪明的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Figure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗条的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强壮的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆胖的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰满的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矮胖的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修长的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘦高的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清瘦的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装饰品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decorator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耳环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手镯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胸针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体部位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body Part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Academic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新生报到会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Course</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程(表)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选修课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必修课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预科课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学科分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人文学科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考古学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年代学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗传学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天文学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地质学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海洋学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿科学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生理学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心理学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>园林学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水厂养殖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Course level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预备级的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take-away restaurant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vending machine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drive-in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>starter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>herring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lemonade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lean meat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mineral water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lentil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cigar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lamb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>steak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oyster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chili</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>broccoli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cauliflower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>celery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lettuce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spinach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mulberry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shampagne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alcohol addict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grain/cereal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carbonhydrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cholesterol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossroad/intersection/junction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-road</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fork road</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pedestrian/zebra crossing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pavement/sidewalk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signpost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yellow fever</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chronic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sore throat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flu/influenza</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asthritis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pneumonia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arthritis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diabetes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diarrhea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cholera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leprosy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Symptom/Syndrome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runny/stuffy nose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insomnia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vomit/throw up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feel chilly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ulcer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drowsiness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fatigue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indigestion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sprain/twisted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elbow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dislocation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wry neck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stiff neck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cramps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prescribe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dosage/intake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antibiotics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>side effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capsule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ointment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mixture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>syrup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aspirin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antibiotic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>penicillin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ambulance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pharmacy/chemist's/drug store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acupuncture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vein</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thermometer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metabolism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ligament</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>working irregular hours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ignorance of their body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>life expectancy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>internal clock disorder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsocial hours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hectic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dentist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Practice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>General practitioner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surgeon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physician</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vet/veterinary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oculist/eye docter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diagnosis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prescription/prescribe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consultation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fund</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Penny/pence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value/worth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overdraw/overdraft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rubber check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joint account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instant account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooperation loan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interest rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchange rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount in figures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>breakdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mortgage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay slip/envelop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by installment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collateral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dyed hair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pigtail/ponytail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hair pin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beard/moustache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clean-shaven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrinkle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freckle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pimple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dimple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intelligent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sturdy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chubby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lanky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>earring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bracelet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brooch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resemble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>palm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orientation meeting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registeration/enrollment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>term/semester/trimester</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curriculum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>approval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modular course</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialised/specialist course</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optional/elective/selective courses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>required/compulsory courses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exemption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preparatory course</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Humanities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>algronomy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anthropology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>literature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>archaeology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chronology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statistics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>botany</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>genetics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>astronomy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>geology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oceanography/thalassography</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irrigation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mechanics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paediatrics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physiology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phychology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forestry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>horticulture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aquiculture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intensive reading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extensive reading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>introductory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intermediate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3791,10 +5431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C433"/>
+  <dimension ref="A1:C641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A418" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A434" sqref="A434"/>
+    <sheetView tabSelected="1" topLeftCell="A623" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A642" sqref="A642"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8542,6 +10182,2294 @@
         <v>1</v>
       </c>
     </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="C434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="C436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="C437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A438" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="C439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="C440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="C443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="C444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="C445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="C446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="C447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="C448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="C449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="C451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="C452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="C453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="C454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="C455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="C456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="C457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="C458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="C459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="C460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="C461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="C462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="C463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A464" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="C465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="C466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="C467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="C468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="C469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="C470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A471" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="C471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="C472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="C473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="C474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="C475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="C476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="C477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="C478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="C479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="C480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="C481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="C482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="C483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="C484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="C485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="C486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="C487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="C488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="C489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="C490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="C491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="C493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="C495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="C496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="C497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B498" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="C499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>925</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="C501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="C502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="C503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="C504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="C505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="C506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="C507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="C508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="C509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="C510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="C511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="C512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B513" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="C513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="C514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="C515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="C516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>941</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="C517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="C520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B522" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="C522">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B523" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="C523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A524" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="C525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="C526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="C527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="C528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="C529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="C530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A531" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="C532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="C533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A534" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B534" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="C534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B535" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="C535">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A536" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="C536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="C537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A538" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="C538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A539" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="C539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A540" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="C540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="C541">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A542" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="C542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A543" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A544" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="C544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A545" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="C545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B546" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="C546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="C547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A548" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B548" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="C548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A549" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="C549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A550" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B550" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="C550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A551" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="C551">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A552" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B552" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="C552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A553" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A554" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B554" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="C554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A555" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="C556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A557" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B557" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="C557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A558" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="C558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A559" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B559" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="C559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A560" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B560" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="C560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A561" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B561" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="C561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A562" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B562" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="C562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A563" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B563" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="C563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A564" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B564" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="C564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A565" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="C565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A566" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B566" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="C566">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A567" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B567" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="C567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A568" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B568" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="C568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A569" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B569" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="C569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A570" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C570">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A571" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B571" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A572" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B572" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A573" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B573" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A574" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B574" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C574">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A575" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A576" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B576" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C576">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A577" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B577" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C577">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A578" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B578" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A579" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B579" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A580" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B580" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A581" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B581" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A582" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B582" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C582">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A583" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C583">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A584" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B584" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C584">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A585" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C585">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A586" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B586" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C586">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A587" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B587" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C587">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A588" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B588" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C588">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A589" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B589" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C589">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A590" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B590" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C590">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A591" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B591" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A592" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B592" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C592">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A593" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B593" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C593">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A594" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C594">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A595" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B595" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A596" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B596" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C596">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A597" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B597" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C597">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A598" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B598" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C598">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A599" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C599">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A600" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B600" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C600">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A601" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C601">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A602" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B602" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C602">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A603" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B603" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C603">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A604" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C604">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A605" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B605" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C605">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A606" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B606" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C606">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A607" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B607" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C607">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A608" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B608" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C608">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A609" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B609" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C609">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A610" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B610" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C610">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A611" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B611" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C611">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A612" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B612" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C612">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A613" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B613" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C613">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A614" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B614" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C614">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A615" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C615">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A616" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B616" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C616">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A617" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B617" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C617">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A618" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B618" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C618">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A619" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B619" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C619">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A620" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B620" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C620">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A621" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B621" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C621">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A622" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B622" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C622">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A623" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B623" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C623">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A624" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B624" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C624">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A625" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B625" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C625">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A626" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B626" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C626">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A627" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B627" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C627">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A628" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B628" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C628">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A629" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B629" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C629">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A630" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B630" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C630">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A631" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B631" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C631">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A632" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B632" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C632">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A633" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B633" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C633">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A634" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B634" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C634">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A635" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B635" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C635">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A636" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B636" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C636">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A637" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C637">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A638" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B638" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C638">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A639" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B639" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C639">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A640" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B640" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C640">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A641" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B641" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C641">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/listening/听力高频词.xlsx
+++ b/listening/听力高频词.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1GIT\IELTS-preparation\listening\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD140737-ABA3-4E43-B0DE-CDB70ECF8784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B02127-F83A-4240-86F2-68A76DA2260D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14805" yWindow="975" windowWidth="13725" windowHeight="15195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14025" yWindow="360" windowWidth="11610" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="1266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="1393">
   <si>
     <t>英文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5087,6 +5087,514 @@
   </si>
   <si>
     <t>intermediate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diploma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学术、学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托儿所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼儿园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学教育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理工学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大一新生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homework</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研讨会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚会地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大纲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evaluation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剽窃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>investigation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问卷调查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民意调查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体教工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Faculty/Staff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副教授</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名誉校长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协调员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Campus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>足球场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教学用具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Study Aid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仿制品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓶子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪录片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理科学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Studies of Science</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>危险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石膏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝缘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反光率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文科学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Studies of Art</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俚语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伪装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nursery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kindergarten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tertiary/college education</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>polytechnic school</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freshman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sophomore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>junior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>senior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alumnus/alumni</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>technical school</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seminar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theoretical study</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>venue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>syllabus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proofreading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plagiarism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the expelled/drop out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questionnaire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quantitative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data/datum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interpretation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hypothesis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>department/division</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faculty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>committee/council</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vice professor/associate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chancellor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coordinator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auditorium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>football pitch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>annex/wing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stitch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vessel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imitation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>documentary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>internal clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>splash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vitality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hazard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plaster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perimeter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reflectance rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enthusiasm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacancy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disguise</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5431,10 +5939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C641"/>
+  <dimension ref="A1:C706"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A623" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A642" sqref="A642"/>
+    <sheetView tabSelected="1" topLeftCell="A689" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A708" sqref="A708"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12470,6 +12978,721 @@
         <v>1</v>
       </c>
     </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A642" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B642" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C642">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A643" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B643" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C643">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A644" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B644" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C644">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A645" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B645" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C645">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A646" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B646" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C646">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A647" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B647" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C647">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A648" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B648" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C648">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A649" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B649" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C649">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A650" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B650" s="2" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C650">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A651" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B651" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C651">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A652" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B652" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C652">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A653" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B653" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C653">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A654" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B654" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C654">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A655" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C655">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A656" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B656" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C656">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A657" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B657" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C657">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A658" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C658">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A659" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B659" s="2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C659">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A660" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B660" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C660">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A661" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B661" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C661">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A662" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B662" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C662">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A663" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B663" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C663">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A664" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B664" s="2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C664">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A665" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B665" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C665">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A666" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B666" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C666">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A667" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B667" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C667">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A668" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B668" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C668">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A669" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B669" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C669">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A670" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B670" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C670">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A671" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B671" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C671">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A672" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B672" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C672">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A673" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B673" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C673">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A674" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B674" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C674">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A675" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B675" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C675">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A676" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B676" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C676">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A677" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B677" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C677">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A678" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B678" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C678">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A679" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B679" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C679">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A680" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B680" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C680">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A681" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B681" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C681">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A682" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B682" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C682">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A683" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B683" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C683">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A684" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B684" s="2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C684">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A685" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B685" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C685">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A686" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B686" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C686">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A687" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B687" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C687">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A688" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B688" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C688">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A689" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B689" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C689">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A690" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B690" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C690">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A691" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B691" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C691">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A692" s="2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B692" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C692">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A693" s="2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B693" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C693">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A694" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B694" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C694">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A695" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B695" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C695">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A696" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B696" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C696">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A697" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B697" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C697">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A698" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B698" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C698">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A699" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B699" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C699">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A700" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B700" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C700">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A701" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B701" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C701">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A702" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B702" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C702">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A703" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B703" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C703">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A704" s="2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B704" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C704">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A705" s="2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B705" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C705">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A706" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B706" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C706">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/listening/听力高频词.xlsx
+++ b/listening/听力高频词.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1GIT\IELTS-preparation\listening\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B02127-F83A-4240-86F2-68A76DA2260D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F689C82-4BD1-4EB4-A533-7CD3839BB885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14025" yWindow="360" windowWidth="11610" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13620" yWindow="525" windowWidth="11610" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="1393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="1440">
   <si>
     <t>英文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5595,6 +5595,194 @@
   </si>
   <si>
     <t>disguise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构成，作品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>略读，预览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裁定，评估</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诱捕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歧途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夸张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见学术类形容词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common academic adj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整无缺的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骇人听闻的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潮湿的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>足够的，大量的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有争议的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆锥形的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合适的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机密的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会事务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Social Matters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学走路的小孩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小问题，小岔子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上釉，上光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Library</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词汇表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年鉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《福布斯》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《卫报》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复印机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Environment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气象学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>污染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木炭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排水设施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下水</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5939,10 +6127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C706"/>
+  <dimension ref="A1:C749"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A689" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A708" sqref="A708"/>
+    <sheetView tabSelected="1" topLeftCell="A726" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B749" sqref="B749"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13693,6 +13881,236 @@
         <v>0</v>
       </c>
     </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B707" s="2" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B708" s="2" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B709" s="2" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B710" s="2" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B711" s="2" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B712" s="2" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B713" s="2" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B714" s="2" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A715" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B715" s="1" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B716" s="2" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B717" s="2" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B718" s="2" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B719" s="2" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B720" s="2" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B721" s="2" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B722" s="2" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B723" s="2" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A724" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B724" s="1" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B725" s="2" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B726" s="2" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B727" s="2" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B728" s="2" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A729" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B729" s="1" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B730" s="2" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B731" s="2" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B732" s="2" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B733" s="2" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B734" s="2" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B735" s="2" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B736" s="2" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B737" s="2" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B738" s="2" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A739" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B739" s="1" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B740" s="2" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B741" s="2" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B742" s="2" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B743" s="2" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B744" s="2" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A745" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B745" s="1" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B746" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B747" s="2" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B748" s="2" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B749" s="2" t="s">
+        <v>1439</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/listening/听力高频词.xlsx
+++ b/listening/听力高频词.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1GIT\IELTS-preparation\listening\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F689C82-4BD1-4EB4-A533-7CD3839BB885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3883D4-4C11-4C56-8702-677797BDD933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13620" yWindow="525" windowWidth="11610" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16575" yWindow="570" windowWidth="11310" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="1440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="1701">
   <si>
     <t>英文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5783,6 +5784,1046 @@
   </si>
   <si>
     <t>地下水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可持续的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颗粒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废物处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硫磺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有毒的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可生物降解的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greening</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>植树造林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水土流失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soil erosion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淹没</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉积物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筑堤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲积的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使平衡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可逆的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地质研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geological research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地幔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰富</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花岗岩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metallic element</t>
+  </si>
+  <si>
+    <t>勘探</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volcano</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休眠火山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火山口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地震</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earthquake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地震波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气候</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Climate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄氏度零下20度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华氏温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旱灾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙卷风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飓风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪崩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海啸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要产业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main Industry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贫瘠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贫瘠之地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犁地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灌溉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除草剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀虫剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化肥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打磨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抛光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滋养</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大麦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莴苣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小扁豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食草性的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动物学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zoology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食肉性的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂食性的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哺乳动物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爬行动物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳄鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天鹅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美洲狮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美洲虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松鼠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野兔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑猩猩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大猩猩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎鹰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸵鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微生物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成熟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺乏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专有名词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proper noun</t>
+  </si>
+  <si>
+    <t>布里斯托尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马来西亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大西洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北冰洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公顷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盎司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大使馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空闲的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高频词汇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High frequency vocabulary</t>
+  </si>
+  <si>
+    <t>巡游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南极洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北极</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散热器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期刊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百科全书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>composition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>co-orient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discipline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verdict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decoy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>astray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exaggerate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appalling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contentious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eligible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confidential</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toddler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>niggle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manipulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glaze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glossary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cassette recorder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>almanac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>librarian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frobes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guardian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floppy card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prospectus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deteriorate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contamination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prioritize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charcoal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petrol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drainage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subterranean water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sustainable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>particulate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glacier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waste disposal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sulphur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toxic/poisonous/venomous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sewage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biodegradable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phenomenon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>afforestation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evaporation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moisture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>innudate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sediment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>embankment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alluvial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>counterbalance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irreversible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mantle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abundance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quartz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>granite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prospect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aluminium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dormant volcano</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epicenter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seismic wave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Centigrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fahrenheit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drought</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tornado</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hurricane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avalance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsunami</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dryness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lean land</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plough</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irregation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>herbicide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pesticide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fertiliser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>polish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nourish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>barlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cereal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yoghurt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ginger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>letture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pasture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>herbivorous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carnivorous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>omnivorous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mammals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reptile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>species</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crocodile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dinosaur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>puma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leopard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jaguar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>squirrel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chimpanzee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gorilla</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>koala</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>falcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ostrich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>germ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ripen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shortage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伸展运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻车</t>
+  </si>
+  <si>
+    <t>roll over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stretch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bristol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malaysia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atlantic ocean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arctic ocean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>per annum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Litre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hectare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ounce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>satellite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>embassy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abbreivation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leisure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antarctica</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>north pole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kilocalories</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radiator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cassettes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>encyclopedia</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6127,10 +7168,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C749"/>
+  <dimension ref="A1:C870"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A726" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B749" sqref="B749"/>
+    <sheetView tabSelected="1" topLeftCell="A853" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A871" sqref="A871"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13882,43 +14923,91 @@
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A707" s="2" t="s">
+        <v>1562</v>
+      </c>
       <c r="B707" s="2" t="s">
         <v>1393</v>
       </c>
+      <c r="C707">
+        <v>0</v>
+      </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A708" s="2" t="s">
+        <v>1563</v>
+      </c>
       <c r="B708" s="2" t="s">
         <v>1394</v>
       </c>
+      <c r="C708">
+        <v>0</v>
+      </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A709" s="2" t="s">
+        <v>1564</v>
+      </c>
       <c r="B709" s="2" t="s">
         <v>1395</v>
       </c>
+      <c r="C709">
+        <v>1</v>
+      </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A710" s="2" t="s">
+        <v>1565</v>
+      </c>
       <c r="B710" s="2" t="s">
         <v>1396</v>
       </c>
+      <c r="C710">
+        <v>1</v>
+      </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A711" s="2" t="s">
+        <v>1566</v>
+      </c>
       <c r="B711" s="2" t="s">
         <v>1397</v>
       </c>
+      <c r="C711">
+        <v>1</v>
+      </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A712" s="2" t="s">
+        <v>1567</v>
+      </c>
       <c r="B712" s="2" t="s">
         <v>1398</v>
       </c>
+      <c r="C712">
+        <v>1</v>
+      </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A713" s="2" t="s">
+        <v>1568</v>
+      </c>
       <c r="B713" s="2" t="s">
         <v>1399</v>
       </c>
+      <c r="C713">
+        <v>1</v>
+      </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A714" s="2" t="s">
+        <v>1569</v>
+      </c>
       <c r="B714" s="2" t="s">
         <v>1400</v>
+      </c>
+      <c r="C714">
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.2">
@@ -13928,187 +15017,1713 @@
       <c r="B715" s="1" t="s">
         <v>1401</v>
       </c>
+      <c r="C715">
+        <v>0</v>
+      </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A716" s="2" t="s">
+        <v>1570</v>
+      </c>
       <c r="B716" s="2" t="s">
         <v>1403</v>
       </c>
+      <c r="C716">
+        <v>0</v>
+      </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A717" s="2" t="s">
+        <v>1571</v>
+      </c>
       <c r="B717" s="2" t="s">
         <v>1404</v>
       </c>
+      <c r="C717">
+        <v>1</v>
+      </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A718" s="2" t="s">
+        <v>1572</v>
+      </c>
       <c r="B718" s="2" t="s">
         <v>1405</v>
       </c>
+      <c r="C718">
+        <v>0</v>
+      </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A719" s="2" t="s">
+        <v>1573</v>
+      </c>
       <c r="B719" s="2" t="s">
         <v>1406</v>
       </c>
+      <c r="C719">
+        <v>0</v>
+      </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A720" s="2" t="s">
+        <v>1574</v>
+      </c>
       <c r="B720" s="2" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C720">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A721" s="2" t="s">
+        <v>1575</v>
+      </c>
       <c r="B721" s="2" t="s">
         <v>1408</v>
       </c>
-    </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C721">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A722" s="2" t="s">
+        <v>1576</v>
+      </c>
       <c r="B722" s="2" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C722">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A723" s="2" t="s">
+        <v>1577</v>
+      </c>
       <c r="B723" s="2" t="s">
         <v>1410</v>
       </c>
-    </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C723">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A724" s="1" t="s">
         <v>1412</v>
       </c>
       <c r="B724" s="1" t="s">
         <v>1411</v>
       </c>
-    </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C724">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A725" s="2" t="s">
+        <v>1578</v>
+      </c>
       <c r="B725" s="2" t="s">
         <v>1413</v>
       </c>
-    </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C725">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A726" s="2" t="s">
+        <v>1579</v>
+      </c>
       <c r="B726" s="2" t="s">
         <v>1414</v>
       </c>
-    </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C726">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A727" s="2" t="s">
+        <v>1580</v>
+      </c>
       <c r="B727" s="2" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C727">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A728" s="2" t="s">
+        <v>1581</v>
+      </c>
       <c r="B728" s="2" t="s">
         <v>1416</v>
       </c>
-    </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C728">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A729" s="1" t="s">
         <v>1418</v>
       </c>
       <c r="B729" s="1" t="s">
         <v>1417</v>
       </c>
-    </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C729">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A730" s="2" t="s">
+        <v>1582</v>
+      </c>
       <c r="B730" s="2" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C730">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A731" s="2" t="s">
+        <v>1583</v>
+      </c>
       <c r="B731" s="2" t="s">
         <v>1420</v>
       </c>
-    </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C731">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A732" s="2" t="s">
+        <v>1584</v>
+      </c>
       <c r="B732" s="2" t="s">
         <v>1421</v>
       </c>
-    </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C732">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A733" s="2" t="s">
+        <v>1585</v>
+      </c>
       <c r="B733" s="2" t="s">
         <v>1422</v>
       </c>
-    </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C733">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A734" s="2" t="s">
+        <v>1586</v>
+      </c>
       <c r="B734" s="2" t="s">
         <v>1423</v>
       </c>
-    </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C734">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A735" s="2" t="s">
+        <v>1587</v>
+      </c>
       <c r="B735" s="2" t="s">
         <v>1424</v>
       </c>
-    </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C735">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A736" s="2" t="s">
+        <v>1588</v>
+      </c>
       <c r="B736" s="2" t="s">
         <v>1425</v>
       </c>
-    </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C736">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A737" s="2" t="s">
+        <v>1589</v>
+      </c>
       <c r="B737" s="2" t="s">
         <v>1426</v>
       </c>
-    </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C737">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A738" s="2" t="s">
+        <v>1590</v>
+      </c>
       <c r="B738" s="2" t="s">
         <v>1427</v>
       </c>
-    </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C738">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A739" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="B739" s="1" t="s">
         <v>1429</v>
       </c>
-    </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C739">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A740" s="2" t="s">
+        <v>425</v>
+      </c>
       <c r="B740" s="2" t="s">
         <v>1430</v>
       </c>
-    </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C740">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A741" s="2" t="s">
+        <v>1591</v>
+      </c>
       <c r="B741" s="2" t="s">
         <v>1431</v>
       </c>
-    </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C741">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A742" s="2" t="s">
+        <v>1592</v>
+      </c>
       <c r="B742" s="2" t="s">
         <v>1432</v>
       </c>
-    </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C742">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A743" s="2" t="s">
+        <v>1574</v>
+      </c>
       <c r="B743" s="2" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C743">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A744" s="2" t="s">
+        <v>1593</v>
+      </c>
       <c r="B744" s="2" t="s">
         <v>1433</v>
       </c>
-    </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C744">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A745" s="1" t="s">
         <v>1435</v>
       </c>
       <c r="B745" s="1" t="s">
         <v>1434</v>
       </c>
-    </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C745">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A746" s="2" t="s">
+        <v>1594</v>
+      </c>
       <c r="B746" s="2" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C746">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A747" s="2" t="s">
+        <v>1595</v>
+      </c>
       <c r="B747" s="2" t="s">
         <v>1437</v>
       </c>
-    </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C747">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A748" s="2" t="s">
+        <v>1596</v>
+      </c>
       <c r="B748" s="2" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C748">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A749" s="2" t="s">
+        <v>1597</v>
+      </c>
       <c r="B749" s="2" t="s">
         <v>1439</v>
+      </c>
+      <c r="C749">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A750" s="2" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B750" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C750">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A751" s="2" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B751" s="2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C751">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A752" s="2" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B752" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C752">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A753" s="2" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B753" s="2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C753">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A754" s="2" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B754" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C754">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A755" s="2" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B755" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C755">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A756" s="2" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B756" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C756">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A757" s="2" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B757" s="2" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C757">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A758" s="2" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B758" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C758">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A759" s="2" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B759" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C759">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A760" s="2" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B760" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C760">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A761" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B761" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C761">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A762" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B762" s="2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C762">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A763" s="2" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B763" s="2" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C763">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A764" s="2" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B764" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C764">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A765" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B765" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C765">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A766" s="2" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B766" s="2" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C766">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A767" s="2" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B767" s="2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C767">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A768" s="2" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B768" s="2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C768">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A769" s="2" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B769" s="2" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C769">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A770" s="2" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B770" s="2" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C770">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A771" s="2" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B771" s="2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C771">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A772" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B772" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C772">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A773" s="2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B773" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C773">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A774" s="2" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B774" s="2" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C774">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A775" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B775" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C775">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A776" s="2" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B776" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C776">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A777" s="2" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B777" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C777">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A778" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B778" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C778">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A779" s="2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B779" s="2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C779">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A780" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B780" s="2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C780">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A781" s="2" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B781" s="2" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C781">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="782" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A782" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B782" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C782">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A783" s="2" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B783" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C783">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A784" s="2" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B784" s="2" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C784">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A785" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B785" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C785">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A786" s="2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B786" s="2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C786">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="787" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A787" s="2" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B787" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C787">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A788" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B788" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C788">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A789" s="2" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B789" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C789">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A790" s="2" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B790" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C790">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="791" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A791" s="2" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B791" s="2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C791">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A792" s="2" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B792" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C792">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A793" s="2" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B793" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C793">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="794" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A794" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B794" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C794">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A795" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B795" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C795">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A796" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B796" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C796">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A797" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B797" s="2" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C797">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A798" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B798" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C798">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A799" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B799" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C799">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A800" s="2" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B800" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C800">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A801" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B801" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C801">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="802" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A802" s="2" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B802" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C802">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A803" s="2" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B803" s="2" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C803">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="804" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A804" s="2" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B804" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C804">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="805" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A805" s="2" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B805" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C805">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="806" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A806" s="2" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B806" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C806">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="807" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A807" s="2" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B807" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C807">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="808" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A808" s="2" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B808" s="2" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C808">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A809" s="2" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B809" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C809">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="810" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A810" s="2" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B810" s="2" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C810">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A811" s="2" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B811" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C811">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="812" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A812" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B812" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="C812">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="813" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A813" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B813" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="C813">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="814" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A814" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B814" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C814">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="815" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A815" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B815" s="2" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C815">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="816" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A816" s="2" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B816" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C816">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="817" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A817" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B817" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C817">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="818" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A818" s="2" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B818" s="2" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C818">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="819" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A819" s="2" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B819" s="2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C819">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="820" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A820" s="2" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B820" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C820">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="821" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A821" s="2" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B821" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C821">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A822" s="2" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B822" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C822">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A823" s="2" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B823" s="2" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C823">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="824" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A824" s="2" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B824" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C824">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="825" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A825" s="2" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B825" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C825">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="826" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A826" s="2" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B826" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C826">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="827" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A827" s="2" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B827" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C827">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="828" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A828" s="2" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B828" s="2" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C828">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="829" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A829" s="2" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B829" s="2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C829">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="830" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A830" s="2" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B830" s="2" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C830">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="831" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A831" s="2" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B831" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C831">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="832" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A832" s="2" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B832" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C832">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="833" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A833" s="2" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B833" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C833">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="834" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A834" s="2" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B834" s="2" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C834">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="835" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A835" s="2" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B835" s="2" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C835">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="836" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A836" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B836" s="2" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C836">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="837" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A837" s="2" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B837" s="2" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C837">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="838" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A838" s="2" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B838" s="2" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C838">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="839" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A839" s="2" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B839" s="2" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C839">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="840" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A840" s="2" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B840" s="2" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C840">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="841" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A841" s="2" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B841" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C841">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="842" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A842" s="2" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B842" s="2" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C842">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="843" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A843" s="2" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B843" s="2" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C843">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A844" s="1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B844" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C844">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="845" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A845" s="2" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B845" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C845">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A846" s="2" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B846" s="2" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C846">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A847" s="2" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B847" s="2" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C847">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="848" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A848" s="2" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B848" s="2" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C848">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="849" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A849" s="2" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B849" s="2" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C849">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="850" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A850" s="2" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B850" s="2" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C850">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="851" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A851" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B851" s="2" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C851">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="852" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A852" s="2" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B852" s="2" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C852">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="853" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A853" s="2" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B853" s="2" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C853">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="854" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A854" s="2" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B854" s="2" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C854">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="855" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A855" s="2" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B855" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C855">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="856" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A856" s="2" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B856" s="2" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C856">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="857" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A857" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B857" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C857">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="858" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A858" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B858" s="2" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C858">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="859" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A859" s="2" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B859" s="2" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C859">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="860" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A860" s="2" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B860" s="2" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C860">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A861" s="2" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B861" s="2" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C861">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="862" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A862" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B862" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="C862">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A863" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B863" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C863">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A864" s="2" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B864" s="2" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C864">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="865" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A865" s="2" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B865" s="2" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C865">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="866" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A866" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B866" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C866">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A867" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B867" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C867">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="868" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A868" s="2" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B868" s="2" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C868">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="869" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A869" s="2" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B869" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C869">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="870" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A870" s="2" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B870" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C870">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
